--- a/datascrapper/united_states/new_york/new_york/restaurants.xlsx
+++ b/datascrapper/united_states/new_york/new_york/restaurants.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,289 +427,289 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>The Smith</v>
+        <v>Gramercy Tavern</v>
       </c>
       <c r="B2" t="str">
-        <v>https://thesmithrestaurant.com/location/nomad/</v>
+        <v>https://www.gramercytavern.com/</v>
       </c>
       <c r="C2" t="str">
-        <v>(212) 685-4500</v>
+        <v>(212) 477-0777</v>
       </c>
       <c r="D2" t="str">
         <v/>
       </c>
       <c r="E2">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="F2" t="str">
-        <v>40.7442419, -73.9886085</v>
+        <v>40.7384555, -73.98850639999999</v>
       </c>
       <c r="G2" t="str">
-        <v>1150 Broadway, New York, NY 10010, USA</v>
+        <v>42 E 20th St, New York, NY 10003, USA</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Tatiana by Kwame Onwuachi</v>
+        <v>The Smith</v>
       </c>
       <c r="B3" t="str">
-        <v>https://www.tatiananyc.com/</v>
+        <v>https://thesmithrestaurant.com/location/nomad/</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>(212) 685-4500</v>
       </c>
       <c r="D3" t="str">
         <v/>
       </c>
       <c r="E3">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="F3" t="str">
-        <v>40.772786200000006, -73.983104</v>
+        <v>40.7442419, -73.9886085</v>
       </c>
       <c r="G3" t="str">
-        <v>10 Lincoln Center Plaza, New York, NY 10023, USA</v>
+        <v>1150 Broadway, New York, NY 10010, USA</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Manhatta</v>
+        <v>Eataly</v>
       </c>
       <c r="B4" t="str">
-        <v>https://www.manhattarestaurant.com/</v>
+        <v>https://www.eataly.com/us_en/stores/nyc-downtown/restaurants</v>
       </c>
       <c r="C4" t="str">
-        <v>(212) 230-5788</v>
+        <v>(212) 897-2895</v>
       </c>
       <c r="D4" t="str">
         <v/>
       </c>
       <c r="E4">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="F4" t="str">
-        <v>40.707997399999996, -74.00888259999999</v>
+        <v>40.710393599999996, -74.01166649999999</v>
       </c>
       <c r="G4" t="str">
-        <v>28 Liberty St 60th floor, New York, NY 10005, USA</v>
+        <v>101 Liberty St, New York, NY 10007, USA</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Bubby's</v>
+        <v>Manhatta</v>
       </c>
       <c r="B5" t="str">
-        <v>https://www.bubbys.com/</v>
+        <v>https://www.manhattarestaurant.com/</v>
       </c>
       <c r="C5" t="str">
-        <v>(212) 219-0666</v>
+        <v>(212) 230-5788</v>
       </c>
       <c r="D5" t="str">
         <v/>
       </c>
       <c r="E5">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="F5" t="str">
-        <v>40.719819, -74.0083829</v>
+        <v>40.707997399999996, -74.00888259999999</v>
       </c>
       <c r="G5" t="str">
-        <v>120 Hudson St, New York, NY 10013, USA</v>
+        <v>28 Liberty St 60th floor, New York, NY 10005, USA</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Eataly</v>
+        <v>Le Bernardin</v>
       </c>
       <c r="B6" t="str">
-        <v>https://www.eataly.com/us_en/stores/nyc-downtown/restaurants</v>
+        <v>https://www.le-bernardin.com/home</v>
       </c>
       <c r="C6" t="str">
-        <v>(212) 897-2895</v>
+        <v>(212) 554-1515</v>
       </c>
       <c r="D6" t="str">
         <v/>
       </c>
       <c r="E6">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="F6" t="str">
-        <v>40.710393599999996, -74.01166649999999</v>
+        <v>40.7614218, -73.9817558</v>
       </c>
       <c r="G6" t="str">
-        <v>101 Liberty St, New York, NY 10007, USA</v>
+        <v>155 W 51st St, New York, NY 10019, USA</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Le Bernardin</v>
+        <v>abc kitchen</v>
       </c>
       <c r="B7" t="str">
-        <v>https://www.le-bernardin.com/home</v>
+        <v>https://www.abckitchen.nyc/</v>
       </c>
       <c r="C7" t="str">
-        <v>(212) 554-1515</v>
+        <v>(212) 475-5829</v>
       </c>
       <c r="D7" t="str">
         <v/>
       </c>
       <c r="E7">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="F7" t="str">
-        <v>40.7614218, -73.9817558</v>
+        <v>40.737775, -73.9896167</v>
       </c>
       <c r="G7" t="str">
-        <v>155 W 51st St, New York, NY 10019, USA</v>
+        <v>35 E 18th St, New York, NY 10003, USA</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Pastis</v>
+        <v>1803 NYC</v>
       </c>
       <c r="B8" t="str">
-        <v>https://pastisnyc.com/?utm_source=GoogleBusinessProfile&amp;utm_medium=Website&amp;utm_campaign=MapLabs</v>
+        <v>https://1803nyc.com/</v>
       </c>
       <c r="C8" t="str">
-        <v>(212) 929-4844</v>
+        <v>(212) 267-3000</v>
       </c>
       <c r="D8" t="str">
         <v/>
       </c>
       <c r="E8">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="F8" t="str">
-        <v>40.739241799999995, -74.007014</v>
+        <v>40.7154539, -74.00733009999999</v>
       </c>
       <c r="G8" t="str">
-        <v>52 Gansevoort St, New York, NY 10014, USA</v>
+        <v>82 Reade St, New York, NY 10007, USA</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Brooklyn Chop House Steakhouse Downtown NYC</v>
+        <v>Tatiana by Kwame Onwuachi</v>
       </c>
       <c r="B9" t="str">
-        <v>https://www.brooklynchophouse.com/</v>
+        <v>https://www.tatiananyc.com/</v>
       </c>
       <c r="C9" t="str">
-        <v>(212) 619-1200</v>
+        <v/>
       </c>
       <c r="D9" t="str">
         <v/>
       </c>
       <c r="E9">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="F9" t="str">
-        <v>40.711531699999995, -74.0058832</v>
+        <v>40.772786200000006, -73.983104</v>
       </c>
       <c r="G9" t="str">
-        <v>150 Nassau St, New York, NY 10038, USA</v>
+        <v>10 Lincoln Center Plaza, New York, NY 10023, USA</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>ONE Dine at One World Observatory</v>
+        <v>Casa D'Angelo New York</v>
       </c>
       <c r="B10" t="str">
-        <v>https://www.oneworldobservatory.com/bar-restaurant/?utm_source=googlebusiness&amp;utm_medium=organic&amp;utm_campaign=places</v>
+        <v>http://www.cangelomulberry.com/</v>
       </c>
       <c r="C10" t="str">
-        <v>(212) 602-4070</v>
+        <v>(212) 804-8656</v>
       </c>
       <c r="D10" t="str">
         <v/>
       </c>
       <c r="E10">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="F10" t="str">
-        <v>40.713006199999995, -74.013173</v>
+        <v>40.7188063, -73.9972296</v>
       </c>
       <c r="G10" t="str">
-        <v>117 West St, New York, NY 10007, USA</v>
+        <v>146 Mulberry St, New York, NY 10013, USA</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Zia Maria Little Italy</v>
+        <v>Chambers</v>
       </c>
       <c r="B11" t="str">
-        <v>http://www.ziamarialittleitaly.com/</v>
+        <v>http://chambers.nyc/</v>
       </c>
       <c r="C11" t="str">
-        <v>(646) 590-7873</v>
+        <v>(212) 580-3572</v>
       </c>
       <c r="D11" t="str">
         <v/>
       </c>
       <c r="E11">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="F11" t="str">
-        <v>40.718694899999996, -73.9974666</v>
+        <v>40.7145903, -74.0075468</v>
       </c>
       <c r="G11" t="str">
-        <v>138 Mulberry St, New York, NY 10013, USA</v>
+        <v>94 Chambers St #1, New York, NY 10007, USA</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Serafina Tribeca</v>
+        <v>Tick Tock Diner NY</v>
       </c>
       <c r="B12" t="str">
-        <v>https://www.serafinarestaurant.com/</v>
+        <v>http://www.ticktockdinerny.com/</v>
       </c>
       <c r="C12" t="str">
-        <v>(212) 766-2700</v>
+        <v>(212) 268-8444</v>
       </c>
       <c r="D12" t="str">
         <v/>
       </c>
       <c r="E12">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="F12" t="str">
-        <v>40.7155048, -74.00894509999999</v>
+        <v>40.75242, -73.993544</v>
       </c>
       <c r="G12" t="str">
-        <v>95 W Broadway, New York, NY 10007, USA</v>
+        <v>481 8th Ave, New York, NY 10001, USA</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Cipriani Downtown</v>
+        <v>Le Coucou</v>
       </c>
       <c r="B13" t="str">
-        <v>https://www.cipriani.com/cipriani-downtown?utm_source=gbp&amp;utm_medium=organic&amp;utm_campaign=gbp-downtown-nyc</v>
+        <v>https://www.lecoucou.com/?utm_source=GoogleBusinessProfile&amp;utm_medium=Website&amp;utm_campaign=MapLabs</v>
       </c>
       <c r="C13" t="str">
-        <v>(212) 343-0999</v>
+        <v>(212) 271-4252</v>
       </c>
       <c r="D13" t="str">
         <v/>
       </c>
       <c r="E13">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="F13" t="str">
-        <v>40.7235595, -74.00295559999999</v>
+        <v>40.7191167, -74.0001861</v>
       </c>
       <c r="G13" t="str">
-        <v>376 W Broadway, New York, NY 10012, USA</v>
+        <v>138 Lafayette St, New York, NY 10013, USA</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>abc kitchen</v>
+        <v>Nobu Downtown</v>
       </c>
       <c r="B14" t="str">
-        <v>https://www.abckitchen.nyc/</v>
+        <v>https://www.noburestaurants.com/downtown/home/?utm_source=google&amp;utm_medium=Yext</v>
       </c>
       <c r="C14" t="str">
-        <v>(212) 475-5829</v>
+        <v>(212) 219-0500</v>
       </c>
       <c r="D14" t="str">
         <v/>
@@ -718,176 +718,1096 @@
         <v>4.4</v>
       </c>
       <c r="F14" t="str">
-        <v>40.737775, -73.9896167</v>
+        <v>40.7107732, -74.00958039999999</v>
       </c>
       <c r="G14" t="str">
-        <v>35 E 18th St, New York, NY 10003, USA</v>
+        <v>195 Broadway, New York, NY 10007, USA</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>1803 NYC</v>
+        <v>La Parisienne</v>
       </c>
       <c r="B15" t="str">
-        <v>https://1803nyc.com/</v>
+        <v>http://www.laparisiennenyc.com/</v>
       </c>
       <c r="C15" t="str">
-        <v>(212) 267-3000</v>
+        <v>(646) 756-4911</v>
       </c>
       <c r="D15" t="str">
         <v/>
       </c>
       <c r="E15">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="F15" t="str">
-        <v>40.7154539, -74.00733009999999</v>
+        <v>40.70959, -74.009362</v>
       </c>
       <c r="G15" t="str">
-        <v>82 Reade St, New York, NY 10007, USA</v>
+        <v>9 Maiden Ln, New York, NY 10038, USA</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>The Malt House</v>
+        <v>Serafina Tribeca</v>
       </c>
       <c r="B16" t="str">
-        <v>http://www.themalthousefidi.com/</v>
+        <v>https://www.serafinarestaurant.com/</v>
       </c>
       <c r="C16" t="str">
-        <v>(646) 682-7577</v>
+        <v>(212) 766-2700</v>
       </c>
       <c r="D16" t="str">
         <v/>
       </c>
       <c r="E16">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="F16" t="str">
-        <v>40.7096649, -74.0093444</v>
+        <v>40.7155048, -74.00894509999999</v>
       </c>
       <c r="G16" t="str">
-        <v>9 Maiden Ln, New York, NY 10038, USA</v>
+        <v>95 W Broadway, New York, NY 10007, USA</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Petite Boucherie</v>
+        <v>Hole In The Wall - FiDi</v>
       </c>
       <c r="B17" t="str">
-        <v>https://www.boucherieus.com/</v>
+        <v>http://www.holeinthewallnyc.com/fidi</v>
       </c>
       <c r="C17" t="str">
-        <v>(646) 756-4145</v>
+        <v>(212) 602-9991</v>
       </c>
       <c r="D17" t="str">
         <v/>
       </c>
       <c r="E17">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="F17" t="str">
-        <v>40.733870599999996, -74.0004319</v>
+        <v>40.7083126, -74.0056165</v>
       </c>
       <c r="G17" t="str">
-        <v>First Floor, 14 Christopher St, New York, NY 10014, USA</v>
+        <v>15 Cliff St, New York, NY 10038, USA</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Minetta Tavern</v>
+        <v>Hillstone</v>
       </c>
       <c r="B18" t="str">
-        <v>http://www.minettatavernny.com/</v>
+        <v>https://hillstonerestaurant.com/locations/nyc-parkavenuesouth/</v>
       </c>
       <c r="C18" t="str">
-        <v>(212) 475-3850</v>
+        <v>(212) 689-1090</v>
       </c>
       <c r="D18" t="str">
         <v/>
       </c>
       <c r="E18">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="F18" t="str">
-        <v>40.7299881, -74.0007016</v>
+        <v>40.742658999999996, -73.9848365</v>
       </c>
       <c r="G18" t="str">
-        <v>113 MacDougal St, New York, NY 10012, USA</v>
+        <v>378 Park Ave S, New York, NY 10010, USA</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Hole In The Wall - FiDi</v>
+        <v>Cathédrale Restaurant</v>
       </c>
       <c r="B19" t="str">
-        <v>http://www.holeinthewallnyc.com/fidi</v>
+        <v>https://moxyeastvillage.com/cathedrale/</v>
       </c>
       <c r="C19" t="str">
-        <v>(212) 602-9991</v>
+        <v>(212) 888-1093</v>
       </c>
       <c r="D19" t="str">
         <v/>
       </c>
       <c r="E19">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="F19" t="str">
-        <v>40.7083126, -74.0056165</v>
+        <v>40.731533899999995, -73.98919750000002</v>
       </c>
       <c r="G19" t="str">
-        <v>15 Cliff St, New York, NY 10038, USA</v>
+        <v>112 E 11th St, New York, NY 10003, USA</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Lulla NYC</v>
+        <v>Miss Nellie's</v>
       </c>
       <c r="B20" t="str">
-        <v>http://www.lullanyc.com/</v>
+        <v>https://missnelliesnyc.com/</v>
       </c>
       <c r="C20" t="str">
-        <v>(929) 588-8556</v>
+        <v>(646) 360-3012</v>
       </c>
       <c r="D20" t="str">
         <v/>
       </c>
       <c r="E20">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="F20" t="str">
-        <v>40.7441117, -73.99299409999999</v>
+        <v>40.7593949, -73.9900238</v>
       </c>
       <c r="G20" t="str">
-        <v>113 W 24 St, New York, NY 10011, USA</v>
+        <v>321 W 44th St, New York, NY 10036, USA</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Nobu Downtown</v>
+        <v>Le Gratin</v>
       </c>
       <c r="B21" t="str">
-        <v>https://www.noburestaurants.com/downtown/home/?utm_source=google&amp;utm_medium=Yext</v>
+        <v>http://www.legratinnyc.com/</v>
       </c>
       <c r="C21" t="str">
-        <v>(212) 219-0500</v>
+        <v>(212) 597-9020</v>
       </c>
       <c r="D21" t="str">
         <v/>
       </c>
       <c r="E21">
+        <v>4.7</v>
+      </c>
+      <c r="F21" t="str">
+        <v>40.711273999999996, -74.0066676</v>
+      </c>
+      <c r="G21" t="str">
+        <v>5 Beekman St, New York, NY 10038, USA</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Mezcali</v>
+      </c>
+      <c r="B22" t="str">
+        <v>https://www.mezcalinyc.com/</v>
+      </c>
+      <c r="C22" t="str">
+        <v>(917) 409-5881</v>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22">
+        <v>4.7</v>
+      </c>
+      <c r="F22" t="str">
+        <v>40.707454600000005, -74.0074691</v>
+      </c>
+      <c r="G22" t="str">
+        <v>83 Maiden Ln, New York, NY 10038, USA</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>ONE Dine at One World Observatory</v>
+      </c>
+      <c r="B23" t="str">
+        <v>https://www.oneworldobservatory.com/bar-restaurant/?utm_source=googlebusiness&amp;utm_medium=organic&amp;utm_campaign=places</v>
+      </c>
+      <c r="C23" t="str">
+        <v>(212) 602-4070</v>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23">
+        <v>4.3</v>
+      </c>
+      <c r="F23" t="str">
+        <v>40.713006199999995, -74.013173</v>
+      </c>
+      <c r="G23" t="str">
+        <v>117 West St, New York, NY 10007, USA</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>The Malt House</v>
+      </c>
+      <c r="B24" t="str">
+        <v>http://www.themalthousefidi.com/</v>
+      </c>
+      <c r="C24" t="str">
+        <v>(646) 682-7577</v>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24">
+        <v>4.3</v>
+      </c>
+      <c r="F24" t="str">
+        <v>40.7096649, -74.0093444</v>
+      </c>
+      <c r="G24" t="str">
+        <v>9 Maiden Ln, New York, NY 10038, USA</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>The Odeon</v>
+      </c>
+      <c r="B25" t="str">
+        <v>http://www.theodeonrestaurant.com/</v>
+      </c>
+      <c r="C25" t="str">
+        <v>(212) 233-0507</v>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25">
+        <v>4.5</v>
+      </c>
+      <c r="F25" t="str">
+        <v>40.716978999999995, -74.007834</v>
+      </c>
+      <c r="G25" t="str">
+        <v>145 W Broadway, New York, NY 10013, USA</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Brooklyn Chop House Steakhouse Downtown NYC</v>
+      </c>
+      <c r="B26" t="str">
+        <v>https://www.brooklynchophouse.com/</v>
+      </c>
+      <c r="C26" t="str">
+        <v>(212) 619-1200</v>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26">
+        <v>4.2</v>
+      </c>
+      <c r="F26" t="str">
+        <v>40.711531699999995, -74.0058832</v>
+      </c>
+      <c r="G26" t="str">
+        <v>150 Nassau St, New York, NY 10038, USA</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Little Owl</v>
+      </c>
+      <c r="B27" t="str">
+        <v>https://www.thelittleowlnyc.com/</v>
+      </c>
+      <c r="C27" t="str">
+        <v>(212) 741-4695</v>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27">
+        <v>4.5</v>
+      </c>
+      <c r="F27" t="str">
+        <v>40.732375399999995, -74.0052681</v>
+      </c>
+      <c r="G27" t="str">
+        <v>90 Bedford St, New York, NY 10014, USA</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Kuu</v>
+      </c>
+      <c r="B28" t="str">
+        <v>https://rebrand.ly/kuu-ny</v>
+      </c>
+      <c r="C28" t="str">
+        <v>(212) 571-7177</v>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+      <c r="E28">
+        <v>4.5</v>
+      </c>
+      <c r="F28" t="str">
+        <v>40.7097829, -74.0089113</v>
+      </c>
+      <c r="G28" t="str">
+        <v>20 John St, New York, NY 10038, USA</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Atera</v>
+      </c>
+      <c r="B29" t="str">
+        <v>http://www.ateranyc.com/</v>
+      </c>
+      <c r="C29" t="str">
+        <v>(212) 226-1444</v>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29">
+        <v>4.6</v>
+      </c>
+      <c r="F29" t="str">
+        <v>40.7169003, -74.0055631</v>
+      </c>
+      <c r="G29" t="str">
+        <v>77 Worth St, New York, NY 10013, USA</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Gran Morsi</v>
+      </c>
+      <c r="B30" t="str">
+        <v>http://www.granmorsi.com/</v>
+      </c>
+      <c r="C30" t="str">
+        <v>(212) 577-2725</v>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30">
         <v>4.4</v>
       </c>
-      <c r="F21" t="str">
-        <v>40.7107732, -74.00958039999999</v>
-      </c>
-      <c r="G21" t="str">
-        <v>195 Broadway, New York, NY 10007, USA</v>
+      <c r="F30" t="str">
+        <v>40.714315, -74.007766</v>
+      </c>
+      <c r="G30" t="str">
+        <v>22 Warren St, New York, NY 10007, USA</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>O'Hara's Restaurant and Pub</v>
+      </c>
+      <c r="B31" t="str">
+        <v>https://oharasrestaurantandpub.site/</v>
+      </c>
+      <c r="C31" t="str">
+        <v>(212) 267-3032</v>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31">
+        <v>4.6</v>
+      </c>
+      <c r="F31" t="str">
+        <v>40.7095008, -74.0126642</v>
+      </c>
+      <c r="G31" t="str">
+        <v>120 Cedar St, New York, NY 10006, USA</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Skinos</v>
+      </c>
+      <c r="B32" t="str">
+        <v>https://skinos123.com/?utm_source=google</v>
+      </c>
+      <c r="C32" t="str">
+        <v>(332) 333-3208</v>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+      <c r="E32">
+        <v>4.5</v>
+      </c>
+      <c r="F32" t="str">
+        <v>40.7092191, -74.0137534</v>
+      </c>
+      <c r="G32" t="str">
+        <v>123 Washington St, New York, NY 10006, USA</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Highkey Rainforest Rooftop</v>
+      </c>
+      <c r="B33" t="str">
+        <v>https://highkeyrooftop.com/</v>
+      </c>
+      <c r="C33" t="str">
+        <v>(929) 621-3270</v>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33">
+        <v>3.8</v>
+      </c>
+      <c r="F33" t="str">
+        <v>40.70733, -74.0063713</v>
+      </c>
+      <c r="G33" t="str">
+        <v>6 Platt St 29th floor, New York, NY 10038, USA</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Uncle Lou 快樂人</v>
+      </c>
+      <c r="B34" t="str">
+        <v>http://www.unclelounyc.com/</v>
+      </c>
+      <c r="C34" t="str">
+        <v>(212) 966-5538</v>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34">
+        <v>4.5</v>
+      </c>
+      <c r="F34" t="str">
+        <v>40.7162246, -73.9992347</v>
+      </c>
+      <c r="G34" t="str">
+        <v>73 Mulberry St, New York, NY 10013, USA</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Thai Diner</v>
+      </c>
+      <c r="B35" t="str">
+        <v>http://www.thaidiner.com/</v>
+      </c>
+      <c r="C35" t="str">
+        <v>(646) 559-4140</v>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+      <c r="E35">
+        <v>4.4</v>
+      </c>
+      <c r="F35" t="str">
+        <v>40.7207143, -73.99565</v>
+      </c>
+      <c r="G35" t="str">
+        <v>186 Mott St, New York, NY 10012, USA</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>One World Observatory</v>
+      </c>
+      <c r="B36" t="str">
+        <v>https://www.oneworldobservatory.com/?utm_source=googlebusiness&amp;utm_medium=organic&amp;utm_campaign=places</v>
+      </c>
+      <c r="C36" t="str">
+        <v>(212) 602-4000</v>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36">
+        <v>4.7</v>
+      </c>
+      <c r="F36" t="str">
+        <v>40.713006199999995, -74.013173</v>
+      </c>
+      <c r="G36" t="str">
+        <v>117 West St, New York, NY 10007, USA</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Temple Court</v>
+      </c>
+      <c r="B37" t="str">
+        <v>https://www.templecourtnyc.com/</v>
+      </c>
+      <c r="C37" t="str">
+        <v>(917) 728-4685</v>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37">
+        <v>4.5</v>
+      </c>
+      <c r="F37" t="str">
+        <v>40.7113002, -74.0067691</v>
+      </c>
+      <c r="G37" t="str">
+        <v>5 Beekman St, New York, NY 10038, USA</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Da Claudio NYC Ristorante</v>
+      </c>
+      <c r="B38" t="str">
+        <v>http://www.daclaudionyc.com/</v>
+      </c>
+      <c r="C38" t="str">
+        <v>(212) 285-2668</v>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+      <c r="E38">
+        <v>4.5</v>
+      </c>
+      <c r="F38" t="str">
+        <v>40.710834000000006, -74.00761109999999</v>
+      </c>
+      <c r="G38" t="str">
+        <v>21 Ann St, New York, NY 10038, USA</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Scalini Fedeli</v>
+      </c>
+      <c r="B39" t="str">
+        <v>https://scalinifedeli.com/</v>
+      </c>
+      <c r="C39" t="str">
+        <v>(212) 528-0400</v>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39">
+        <v>4.8</v>
+      </c>
+      <c r="F39" t="str">
+        <v>40.717502499999995, -74.0094518</v>
+      </c>
+      <c r="G39" t="str">
+        <v>165 Duane St, New York, NY 10013, USA</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Musaafer</v>
+      </c>
+      <c r="B40" t="str">
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <v>(212) 605-0444</v>
+      </c>
+      <c r="D40" t="str">
+        <v/>
+      </c>
+      <c r="E40">
+        <v>4.7</v>
+      </c>
+      <c r="F40" t="str">
+        <v>40.7163245, -74.0075569</v>
+      </c>
+      <c r="G40" t="str">
+        <v>133 Duane St, New York, NY 10013, USA</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Times Square Diner &amp; Grill</v>
+      </c>
+      <c r="B41" t="str">
+        <v>https://www.timesquaredinerandgrill.com/</v>
+      </c>
+      <c r="C41" t="str">
+        <v>(212) 315-2400</v>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+      <c r="E41">
+        <v>4.4</v>
+      </c>
+      <c r="F41" t="str">
+        <v>40.761546100000004, -73.98690739999999</v>
+      </c>
+      <c r="G41" t="str">
+        <v>807 8th Ave, New York, NY 10019, USA</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Morton's The Steakhouse</v>
+      </c>
+      <c r="B42" t="str">
+        <v>https://www.mortons.com/location/mortons-the-steakhouse-new-york-ny-world-trade-center/</v>
+      </c>
+      <c r="C42" t="str">
+        <v>(212) 608-0171</v>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+      <c r="E42">
+        <v>4.5</v>
+      </c>
+      <c r="F42" t="str">
+        <v>40.709724, -74.013952</v>
+      </c>
+      <c r="G42" t="str">
+        <v>136 Washington St, New York, NY 10006, USA</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Tiny's &amp; The Bar Upstairs</v>
+      </c>
+      <c r="B43" t="str">
+        <v>http://www.tinysnyc.com/</v>
+      </c>
+      <c r="C43" t="str">
+        <v>(212) 374-1135</v>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43">
+        <v>4.4</v>
+      </c>
+      <c r="F43" t="str">
+        <v>40.7167417, -74.008025</v>
+      </c>
+      <c r="G43" t="str">
+        <v>135 W Broadway, New York, NY 10013, USA</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>CUT by Wolfgang Puck</v>
+      </c>
+      <c r="B44" t="str">
+        <v>https://wolfgangpuck.com/dining/cut-new-york/</v>
+      </c>
+      <c r="C44" t="str">
+        <v>(646) 880-1995</v>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+      <c r="E44">
+        <v>4.4</v>
+      </c>
+      <c r="F44" t="str">
+        <v>40.712855399999995, -74.0093466</v>
+      </c>
+      <c r="G44" t="str">
+        <v>99 Church St, New York, NY 10007, USA</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Sant Ambroeus Brookfield</v>
+      </c>
+      <c r="B45" t="str">
+        <v>https://www.santambroeus.com/</v>
+      </c>
+      <c r="C45" t="str">
+        <v>(212) 732-0907</v>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+      <c r="E45">
+        <v>4.5</v>
+      </c>
+      <c r="F45" t="str">
+        <v>40.713403199999995, -74.0148877</v>
+      </c>
+      <c r="G45" t="str">
+        <v>230 Vesey St, New York, NY 10080, USA</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>LOS TACOS No.1</v>
+      </c>
+      <c r="B46" t="str">
+        <v>https://www.lostacos1.com/</v>
+      </c>
+      <c r="C46" t="str">
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <v/>
+      </c>
+      <c r="E46">
+        <v>4.8</v>
+      </c>
+      <c r="F46" t="str">
+        <v>40.7142906, -74.00871029999999</v>
+      </c>
+      <c r="G46" t="str">
+        <v>136 Church St, New York, NY 10007, USA</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Nom Wah Tea Parlor</v>
+      </c>
+      <c r="B47" t="str">
+        <v>http://www.nomwah.com/</v>
+      </c>
+      <c r="C47" t="str">
+        <v>(212) 962-6047</v>
+      </c>
+      <c r="D47" t="str">
+        <v/>
+      </c>
+      <c r="E47">
+        <v>4.2</v>
+      </c>
+      <c r="F47" t="str">
+        <v>40.7145089, -73.998188</v>
+      </c>
+      <c r="G47" t="str">
+        <v>13 Doyers St, New York, NY 10013, USA</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Añejo Tribeca</v>
+      </c>
+      <c r="B48" t="str">
+        <v>http://anejotribeca.com/</v>
+      </c>
+      <c r="C48" t="str">
+        <v>(212) 920-6270</v>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+      <c r="E48">
+        <v>4.4</v>
+      </c>
+      <c r="F48" t="str">
+        <v>40.7193028, -74.0042704</v>
+      </c>
+      <c r="G48" t="str">
+        <v>301 Church St, New York, NY 10013, USA</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Cowgirl SeaHorse</v>
+      </c>
+      <c r="B49" t="str">
+        <v>http://www.cowgirlseahorse.com/</v>
+      </c>
+      <c r="C49" t="str">
+        <v>(212) 608-7873</v>
+      </c>
+      <c r="D49" t="str">
+        <v/>
+      </c>
+      <c r="E49">
+        <v>4.3</v>
+      </c>
+      <c r="F49" t="str">
+        <v>40.708233199999995, -74.0005406</v>
+      </c>
+      <c r="G49" t="str">
+        <v>259 Front St, New York, NY 10038, USA</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>La Dong</v>
+      </c>
+      <c r="B50" t="str">
+        <v>http://www.ladongnyc.com/</v>
+      </c>
+      <c r="C50" t="str">
+        <v>(917) 289-0019</v>
+      </c>
+      <c r="D50" t="str">
+        <v/>
+      </c>
+      <c r="E50">
+        <v>4.8</v>
+      </c>
+      <c r="F50" t="str">
+        <v>40.7377201, -73.9912047</v>
+      </c>
+      <c r="G50" t="str">
+        <v>11 E 17th St, New York, NY 10003, USA</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Golden Unicorn</v>
+      </c>
+      <c r="B51" t="str">
+        <v>https://goldenunicornrestaurant.com/</v>
+      </c>
+      <c r="C51" t="str">
+        <v>(212) 941-0911</v>
+      </c>
+      <c r="D51" t="str">
+        <v/>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+      <c r="F51" t="str">
+        <v>40.713700599999996, -73.997193</v>
+      </c>
+      <c r="G51" t="str">
+        <v>18 E Broadway, New York, NY 10002, USA</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>NOMO Kitchen</v>
+      </c>
+      <c r="B52" t="str">
+        <v>https://www.nomosoho.com/nomo-soho-kitchen/</v>
+      </c>
+      <c r="C52" t="str">
+        <v>(646) 218-6449</v>
+      </c>
+      <c r="D52" t="str">
+        <v/>
+      </c>
+      <c r="E52">
+        <v>3.9</v>
+      </c>
+      <c r="F52" t="str">
+        <v>40.7198649, -74.000234</v>
+      </c>
+      <c r="G52" t="str">
+        <v>9 Crosby St, New York, NY 10013, USA</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Atoboy</v>
+      </c>
+      <c r="B53" t="str">
+        <v>http://www.atoboynyc.com/</v>
+      </c>
+      <c r="C53" t="str">
+        <v>(646) 476-7217</v>
+      </c>
+      <c r="D53" t="str">
+        <v/>
+      </c>
+      <c r="E53">
+        <v>4.5</v>
+      </c>
+      <c r="F53" t="str">
+        <v>40.7436565, -73.9844859</v>
+      </c>
+      <c r="G53" t="str">
+        <v>43 E 28th St, New York, NY 10016, USA</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Felice 15 Gold</v>
+      </c>
+      <c r="B54" t="str">
+        <v>https://www.felicerestaurants.com/felice-15-gold-street/</v>
+      </c>
+      <c r="C54" t="str">
+        <v>(212) 785-5950</v>
+      </c>
+      <c r="D54" t="str">
+        <v/>
+      </c>
+      <c r="E54">
+        <v>4.5</v>
+      </c>
+      <c r="F54" t="str">
+        <v>40.7078509, -74.007046</v>
+      </c>
+      <c r="G54" t="str">
+        <v>15 Gold St, New York, NY 10038, USA</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>GOLDEN WUISH (THE DUCKHOUSE)</v>
+      </c>
+      <c r="B55" t="str">
+        <v>https://www.goldenwuish.com/</v>
+      </c>
+      <c r="C55" t="str">
+        <v>(917) 262-0528</v>
+      </c>
+      <c r="D55" t="str">
+        <v/>
+      </c>
+      <c r="E55">
+        <v>4.4</v>
+      </c>
+      <c r="F55" t="str">
+        <v>40.70733, -74.0063713</v>
+      </c>
+      <c r="G55" t="str">
+        <v>6 Platt St, New York, NY 10038, USA</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Puglia</v>
+      </c>
+      <c r="B56" t="str">
+        <v>http://pugliaofnyc.com/</v>
+      </c>
+      <c r="C56" t="str">
+        <v>(212) 966-6006</v>
+      </c>
+      <c r="D56" t="str">
+        <v/>
+      </c>
+      <c r="E56">
+        <v>4.3</v>
+      </c>
+      <c r="F56" t="str">
+        <v>40.7181584, -73.9976506</v>
+      </c>
+      <c r="G56" t="str">
+        <v>189 Hester St, New York, NY 10013, USA</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Smyth Tavern</v>
+      </c>
+      <c r="B57" t="str">
+        <v>https://www.smythtavern.com/</v>
+      </c>
+      <c r="C57" t="str">
+        <v>(646) 813-9090</v>
+      </c>
+      <c r="D57" t="str">
+        <v/>
+      </c>
+      <c r="E57">
+        <v>4.3</v>
+      </c>
+      <c r="F57" t="str">
+        <v>40.715220599999995, -74.009131</v>
+      </c>
+      <c r="G57" t="str">
+        <v>85 W Broadway, New York, NY 10007, USA</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Wall Street Grill</v>
+      </c>
+      <c r="B58" t="str">
+        <v>http://www.wallstreetgrill.com/</v>
+      </c>
+      <c r="C58" t="str">
+        <v>(212) 635-5757</v>
+      </c>
+      <c r="D58" t="str">
+        <v/>
+      </c>
+      <c r="E58">
+        <v>4.6</v>
+      </c>
+      <c r="F58" t="str">
+        <v>40.7049874, -74.00856999999999</v>
+      </c>
+      <c r="G58" t="str">
+        <v>128 Pearl St, New York, NY 10005, USA</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Altro Paradiso</v>
+      </c>
+      <c r="B59" t="str">
+        <v>http://www.altroparadiso.com/</v>
+      </c>
+      <c r="C59" t="str">
+        <v>(646) 952-0828</v>
+      </c>
+      <c r="D59" t="str">
+        <v/>
+      </c>
+      <c r="E59">
+        <v>4.4</v>
+      </c>
+      <c r="F59" t="str">
+        <v>40.7254266, -74.0046926</v>
+      </c>
+      <c r="G59" t="str">
+        <v>234 Spring St, New York, NY 10013, USA</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Two Hands</v>
+      </c>
+      <c r="B60" t="str">
+        <v>https://www.twohandshospitality.com/</v>
+      </c>
+      <c r="C60" t="str">
+        <v>(646) 718-5619</v>
+      </c>
+      <c r="D60" t="str">
+        <v/>
+      </c>
+      <c r="E60">
+        <v>4.4</v>
+      </c>
+      <c r="F60" t="str">
+        <v>40.7177931, -74.0054175</v>
+      </c>
+      <c r="G60" t="str">
+        <v>251 Church St, New York, NY 10013, USA</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Shake Shack Fulton Transit CTR - Manhattan</v>
+      </c>
+      <c r="B61" t="str">
+        <v>https://www.shakeshack.com/location/fulton-transit-ctr-manhattan-ny?utm_source=google&amp;utm_medium=listing</v>
+      </c>
+      <c r="C61" t="str">
+        <v>(646) 374-3450</v>
+      </c>
+      <c r="D61" t="str">
+        <v/>
+      </c>
+      <c r="E61">
+        <v>4.2</v>
+      </c>
+      <c r="F61" t="str">
+        <v>40.7105106, -74.0089181</v>
+      </c>
+      <c r="G61" t="str">
+        <v>200 Broadway, Space LL2010 #2010, New York, NY 10038, USA</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G61"/>
   </ignoredErrors>
 </worksheet>
 </file>